--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt5a-Lrp5.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H2">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J2">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.215523666666667</v>
+        <v>15.01856033333333</v>
       </c>
       <c r="N2">
-        <v>18.646571</v>
+        <v>45.055681</v>
       </c>
       <c r="O2">
-        <v>0.2852115546146347</v>
+        <v>0.4908713633047416</v>
       </c>
       <c r="P2">
-        <v>0.2852115546146348</v>
+        <v>0.4908713633047417</v>
       </c>
       <c r="Q2">
-        <v>0.4265340961013333</v>
+        <v>0.3536220154218889</v>
       </c>
       <c r="R2">
-        <v>3.838806864912</v>
+        <v>3.182598138797</v>
       </c>
       <c r="S2">
-        <v>0.002327884858614942</v>
+        <v>0.00138207551396958</v>
       </c>
       <c r="T2">
-        <v>0.002327884858614943</v>
+        <v>0.00138207551396958</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H3">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J3">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>28.452212</v>
       </c>
       <c r="O3">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="P3">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="Q3">
-        <v>0.6508348654293332</v>
+        <v>0.2233087665604445</v>
       </c>
       <c r="R3">
-        <v>5.857513788863999</v>
+        <v>2.009778899044</v>
       </c>
       <c r="S3">
-        <v>0.003552045762671451</v>
+        <v>0.0008727668664795332</v>
       </c>
       <c r="T3">
-        <v>0.003552045762671451</v>
+        <v>0.0008727668664795332</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06862399999999999</v>
+        <v>0.02354566666666667</v>
       </c>
       <c r="H4">
-        <v>0.205872</v>
+        <v>0.07063700000000001</v>
       </c>
       <c r="I4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485919</v>
       </c>
       <c r="J4">
-        <v>0.008161958451368766</v>
+        <v>0.002815555392485918</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>18.279252</v>
       </c>
       <c r="O4">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="P4">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="Q4">
-        <v>0.418131796416</v>
+        <v>0.143465724836</v>
       </c>
       <c r="R4">
-        <v>3.763186167743999</v>
+        <v>1.291191523524</v>
       </c>
       <c r="S4">
-        <v>0.002282027830082372</v>
+        <v>0.0005607130120368055</v>
       </c>
       <c r="T4">
-        <v>0.002282027830082372</v>
+        <v>0.0005607130120368055</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>24.758105</v>
       </c>
       <c r="I5">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J5">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.215523666666667</v>
+        <v>15.01856033333333</v>
       </c>
       <c r="N5">
-        <v>18.646571</v>
+        <v>45.055681</v>
       </c>
       <c r="O5">
-        <v>0.2852115546146347</v>
+        <v>0.4908713633047416</v>
       </c>
       <c r="P5">
-        <v>0.2852115546146348</v>
+        <v>0.4908713633047417</v>
       </c>
       <c r="Q5">
-        <v>51.29486252310611</v>
+        <v>123.9436978938339</v>
       </c>
       <c r="R5">
-        <v>461.653762707955</v>
+        <v>1115.493281044505</v>
       </c>
       <c r="S5">
-        <v>0.2799507352019648</v>
+        <v>0.4844142686239198</v>
       </c>
       <c r="T5">
-        <v>0.2799507352019648</v>
+        <v>0.4844142686239198</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>24.758105</v>
       </c>
       <c r="I6">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J6">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>28.452212</v>
       </c>
       <c r="O6">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="P6">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="Q6">
         <v>78.26920579758443</v>
@@ -818,10 +818,10 @@
         <v>704.42285217826</v>
       </c>
       <c r="S6">
-        <v>0.4271679585228922</v>
+        <v>0.3059027665504093</v>
       </c>
       <c r="T6">
-        <v>0.4271679585228922</v>
+        <v>0.3059027665504093</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>24.758105</v>
       </c>
       <c r="I7">
-        <v>0.9815546764233375</v>
+        <v>0.9868456480383168</v>
       </c>
       <c r="J7">
-        <v>0.9815546764233374</v>
+        <v>0.9868456480383166</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>18.279252</v>
       </c>
       <c r="O7">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="P7">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="Q7">
         <v>50.28440448194</v>
@@ -880,10 +880,10 @@
         <v>452.55964033746</v>
       </c>
       <c r="S7">
-        <v>0.2744359826984804</v>
+        <v>0.1965286128639876</v>
       </c>
       <c r="T7">
-        <v>0.2744359826984804</v>
+        <v>0.1965286128639876</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.259381</v>
       </c>
       <c r="I8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J8">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.215523666666667</v>
+        <v>15.01856033333333</v>
       </c>
       <c r="N8">
-        <v>18.646571</v>
+        <v>45.055681</v>
       </c>
       <c r="O8">
-        <v>0.2852115546146347</v>
+        <v>0.4908713633047416</v>
       </c>
       <c r="P8">
-        <v>0.2852115546146348</v>
+        <v>0.4908713633047417</v>
       </c>
       <c r="Q8">
-        <v>0.5373962480612221</v>
+        <v>1.298509732606778</v>
       </c>
       <c r="R8">
-        <v>4.836566232551</v>
+        <v>11.686587593461</v>
       </c>
       <c r="S8">
-        <v>0.002932934554054958</v>
+        <v>0.005075019166852266</v>
       </c>
       <c r="T8">
-        <v>0.002932934554054958</v>
+        <v>0.005075019166852266</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.259381</v>
       </c>
       <c r="I9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J9">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>28.452212</v>
       </c>
       <c r="O9">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="P9">
-        <v>0.4351952762116512</v>
+        <v>0.3099803572711625</v>
       </c>
       <c r="Q9">
         <v>0.8199959111968886</v>
@@ -1004,10 +1004,10 @@
         <v>7.379963200771999</v>
       </c>
       <c r="S9">
-        <v>0.004475271926087489</v>
+        <v>0.003204823854273649</v>
       </c>
       <c r="T9">
-        <v>0.004475271926087489</v>
+        <v>0.00320482385427365</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.259381</v>
       </c>
       <c r="I10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="J10">
-        <v>0.01028336512529378</v>
+        <v>0.0103387965691973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>18.279252</v>
       </c>
       <c r="O10">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="P10">
-        <v>0.2795931691737141</v>
+        <v>0.1991482794240958</v>
       </c>
       <c r="Q10">
         <v>0.5268100736679999</v>
@@ -1066,10 +1066,10 @@
         <v>4.741290663011999</v>
       </c>
       <c r="S10">
-        <v>0.002875158645151336</v>
+        <v>0.002058953548071388</v>
       </c>
       <c r="T10">
-        <v>0.002875158645151336</v>
+        <v>0.002058953548071388</v>
       </c>
     </row>
   </sheetData>
